--- a/plantillaDatos.xlsx
+++ b/plantillaDatos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Docentes" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">nombre</t>
   </si>
@@ -58,13 +58,10 @@
     <t xml:space="preserve">grado</t>
   </si>
   <si>
-    <t xml:space="preserve">tirno</t>
+    <t xml:space="preserve">turno</t>
   </si>
   <si>
     <t xml:space="preserve">tsu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turno</t>
   </si>
   <si>
     <t xml:space="preserve">docente</t>
@@ -88,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,8 +145,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,31 +286,31 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -331,25 +333,25 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -371,18 +373,18 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>13</v>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -403,21 +405,21 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/plantillaDatos.xlsx
+++ b/plantillaDatos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Docentes" sheetId="1" state="visible" r:id="rId3"/>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">sabado</t>
   </si>
   <si>
-    <t xml:space="preserve">estadia</t>
+    <t xml:space="preserve">horas extra clase</t>
   </si>
   <si>
     <t xml:space="preserve">tipo</t>
@@ -279,11 +279,14 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.16"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -373,7 +376,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
